--- a/pro/database/seeds/Catalogo/EmpleadoMomentaneos.xlsx
+++ b/pro/database/seeds/Catalogo/EmpleadoMomentaneos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
   <si>
     <t xml:space="preserve">Gerardo </t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>langworth.hildegard@example.net</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
+    <t>femenino</t>
   </si>
 </sst>
 </file>
@@ -743,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,9 +763,10 @@
     <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>4585696320101</v>
       </c>
@@ -781,8 +788,11 @@
       <c r="G1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1642660542101</v>
       </c>
@@ -804,8 +814,11 @@
       <c r="G2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -827,8 +840,11 @@
       <c r="G3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2336090081401</v>
       </c>
@@ -850,8 +866,11 @@
       <c r="G4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1840414570101</v>
       </c>
@@ -873,8 +892,11 @@
       <c r="G5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>72</v>
       </c>
@@ -894,8 +916,11 @@
       <c r="G6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2326980580101</v>
       </c>
@@ -917,8 +942,11 @@
       <c r="G7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1731133460101</v>
       </c>
@@ -940,8 +968,11 @@
       <c r="G8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
@@ -963,8 +994,11 @@
       <c r="G9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -986,8 +1020,11 @@
       <c r="G10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -1009,8 +1046,11 @@
       <c r="G11" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>76</v>
       </c>
@@ -1032,8 +1072,11 @@
       <c r="G12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>77</v>
       </c>
@@ -1055,8 +1098,11 @@
       <c r="G13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>78</v>
       </c>
@@ -1078,8 +1124,11 @@
       <c r="G14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2438667471601</v>
       </c>
@@ -1101,8 +1150,11 @@
       <c r="G15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -1124,8 +1176,11 @@
       <c r="G16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
@@ -1147,8 +1202,11 @@
       <c r="G17" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -1170,8 +1228,11 @@
       <c r="G18" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -1193,8 +1254,11 @@
       <c r="G19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1213,6 +1277,9 @@
       </c>
       <c r="G20" t="s">
         <v>108</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
